--- a/Distribution.xlsx
+++ b/Distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\things\CLion\Small Tasks\HashMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DD63BF4-77A1-4B57-928B-74D6282F623A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BC3016-BC9E-43CB-B302-D8B877C1FC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A311A790-3615-4F37-A9E0-A22E7D4ADAD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{A311A790-3615-4F37-A9E0-A22E7D4ADAD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>Максимальная разница</t>
+  </si>
+  <si>
+    <t>Сумма</t>
   </si>
 </sst>
 </file>
@@ -260,55 +263,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>588</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>601</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>609</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>586</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>608</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>608</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>566</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>557</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>606</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>582</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>583</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>579</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>573</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>603</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>552</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>577</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -682,97 +685,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>358</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>313</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>343</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>296</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>312</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>316</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>319</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>328</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>320</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>322</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>320</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>307</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>341</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>258</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>332</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>299</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>311</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>306</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>339</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>322</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>319</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>314</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>361</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>339</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>344</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>306</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>342</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>307</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1356,307 +1359,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>97</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>103</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>107</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>78</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>103</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>113</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>95</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="41">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="44">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>109</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>103</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="61">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="66">
                   <c:v>103</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>81</c:v>
-                </c:pt>
                 <c:pt idx="67">
-                  <c:v>89</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="69">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>109</c:v>
                 </c:pt>
-                <c:pt idx="70">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>111</c:v>
-                </c:pt>
                 <c:pt idx="79">
-                  <c:v>90</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>106</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>91</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>110</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>108</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3871,18 +3874,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B185960-0AE4-4BFD-9943-0D74245AB765}">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G101" sqref="G1:H101"/>
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3890,19 +3894,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="1">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D1">
         <v>1</v>
       </c>
       <c r="E1" s="1">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="G1">
         <v>1</v>
       </c>
       <c r="H1" s="1">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3911,21 +3915,21 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>601</v>
+        <v>569</v>
       </c>
       <c r="D2">
         <f>D1+1</f>
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="G2">
         <f>G1+1</f>
         <v>2</v>
       </c>
       <c r="H2" s="1">
-        <v>89</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3934,21 +3938,21 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>609</v>
+        <v>574</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D31" si="1">D2+1</f>
         <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" si="2">G2+1</f>
         <v>3</v>
       </c>
       <c r="H3" s="1">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3957,7 +3961,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
@@ -3971,7 +3975,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="1">
-        <v>108</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3980,21 +3984,21 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>608</v>
+        <v>582</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="E5" s="1">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H5" s="1">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4003,21 +4007,21 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E6" s="1">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H6" s="1">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4026,21 +4030,21 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>566</v>
+        <v>609</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="E7" s="1">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H7" s="1">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4049,21 +4053,21 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>557</v>
+        <v>615</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="E8" s="1">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H8" s="1">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4072,21 +4076,21 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>606</v>
+        <v>585</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E9" s="1">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="H9" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4095,21 +4099,21 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E10" s="1">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="H10" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4118,21 +4122,21 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>583</v>
+        <v>537</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="E11" s="1">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="H11" s="1">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4141,21 +4145,21 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E12" s="1">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H12" s="1">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4164,21 +4168,21 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>573</v>
+        <v>599</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="E13" s="1">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="H13" s="1">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4187,21 +4191,21 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="E14" s="1">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="H14" s="1">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4210,21 +4214,21 @@
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>552</v>
+        <v>588</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="E15" s="1">
-        <v>341</v>
+        <v>279</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="H15" s="1">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4233,21 +4237,21 @@
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="E16" s="1">
-        <v>258</v>
+        <v>339</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="H16" s="1">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4256,21 +4260,21 @@
         <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="E17" s="1">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="H17" s="1">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4279,14 +4283,14 @@
         <v>18</v>
       </c>
       <c r="E18" s="1">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="H18" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4299,20 +4303,20 @@
         <v>19</v>
       </c>
       <c r="E19" s="1">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H19" s="1">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
         <f>MAX(B1:B17)-MIN(B1:B17)</f>
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="B20" s="2"/>
       <c r="D20">
@@ -4320,14 +4324,14 @@
         <v>20</v>
       </c>
       <c r="E20" s="1">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="H20" s="1">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4336,7 +4340,7 @@
         <v>21</v>
       </c>
       <c r="E21" s="1">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
@@ -4347,19 +4351,26 @@
       </c>
     </row>
     <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <f>SUM(B1:B17)</f>
+        <v>10000</v>
+      </c>
       <c r="D22">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="E22" s="1">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="H22" s="1">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4368,14 +4379,14 @@
         <v>23</v>
       </c>
       <c r="E23" s="1">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="H23" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4391,7 +4402,7 @@
         <v>24</v>
       </c>
       <c r="H24" s="1">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4400,14 +4411,14 @@
         <v>25</v>
       </c>
       <c r="E25" s="1">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="H25" s="1">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4416,14 +4427,14 @@
         <v>26</v>
       </c>
       <c r="E26" s="1">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="H26" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -4432,14 +4443,14 @@
         <v>27</v>
       </c>
       <c r="E27" s="1">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="H27" s="1">
-        <v>73</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4448,14 +4459,14 @@
         <v>28</v>
       </c>
       <c r="E28" s="1">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="H28" s="1">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4464,14 +4475,14 @@
         <v>29</v>
       </c>
       <c r="E29" s="1">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="H29" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -4480,14 +4491,14 @@
         <v>30</v>
       </c>
       <c r="E30" s="1">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="H30" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4496,14 +4507,14 @@
         <v>31</v>
       </c>
       <c r="E31" s="1">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="H31" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4512,7 +4523,7 @@
         <v>32</v>
       </c>
       <c r="H32" s="1">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="4:8">
@@ -4525,13 +4536,13 @@
         <v>33</v>
       </c>
       <c r="H33" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="4:8">
       <c r="D34" s="2">
         <f>MAX(E1:E31)-MIN(E1:E31)</f>
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="E34" s="2"/>
       <c r="G34">
@@ -4539,16 +4550,23 @@
         <v>34</v>
       </c>
       <c r="H34" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="4:8">
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <f>SUM(E1:E31)</f>
+        <v>10000</v>
+      </c>
       <c r="G35">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="H35" s="1">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="4:8">
@@ -4557,7 +4575,7 @@
         <v>36</v>
       </c>
       <c r="H36" s="1">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="4:8">
@@ -4566,7 +4584,7 @@
         <v>37</v>
       </c>
       <c r="H37" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="4:8">
@@ -4575,7 +4593,7 @@
         <v>38</v>
       </c>
       <c r="H38" s="1">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="4:8">
@@ -4584,7 +4602,7 @@
         <v>39</v>
       </c>
       <c r="H39" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="4:8">
@@ -4593,7 +4611,7 @@
         <v>40</v>
       </c>
       <c r="H40" s="1">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="4:8">
@@ -4602,7 +4620,7 @@
         <v>41</v>
       </c>
       <c r="H41" s="1">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="4:8">
@@ -4611,7 +4629,7 @@
         <v>42</v>
       </c>
       <c r="H42" s="1">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="4:8">
@@ -4620,7 +4638,7 @@
         <v>43</v>
       </c>
       <c r="H43" s="1">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="4:8">
@@ -4629,7 +4647,7 @@
         <v>44</v>
       </c>
       <c r="H44" s="1">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="4:8">
@@ -4638,7 +4656,7 @@
         <v>45</v>
       </c>
       <c r="H45" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="4:8">
@@ -4647,7 +4665,7 @@
         <v>46</v>
       </c>
       <c r="H46" s="1">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="4:8">
@@ -4665,7 +4683,7 @@
         <v>48</v>
       </c>
       <c r="H48" s="1">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="7:8">
@@ -4674,7 +4692,7 @@
         <v>49</v>
       </c>
       <c r="H49" s="1">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="7:8">
@@ -4683,7 +4701,7 @@
         <v>50</v>
       </c>
       <c r="H50" s="1">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="7:8">
@@ -4692,7 +4710,7 @@
         <v>51</v>
       </c>
       <c r="H51" s="1">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="7:8">
@@ -4701,7 +4719,7 @@
         <v>52</v>
       </c>
       <c r="H52" s="1">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="7:8">
@@ -4710,7 +4728,7 @@
         <v>53</v>
       </c>
       <c r="H53" s="1">
-        <v>81</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="7:8">
@@ -4719,7 +4737,7 @@
         <v>54</v>
       </c>
       <c r="H54" s="1">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="7:8">
@@ -4728,7 +4746,7 @@
         <v>55</v>
       </c>
       <c r="H55" s="1">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="7:8">
@@ -4737,7 +4755,7 @@
         <v>56</v>
       </c>
       <c r="H56" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="7:8">
@@ -4746,7 +4764,7 @@
         <v>57</v>
       </c>
       <c r="H57" s="1">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="7:8">
@@ -4755,7 +4773,7 @@
         <v>58</v>
       </c>
       <c r="H58" s="1">
-        <v>123</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="7:8">
@@ -4764,7 +4782,7 @@
         <v>59</v>
       </c>
       <c r="H59" s="1">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="7:8">
@@ -4773,7 +4791,7 @@
         <v>60</v>
       </c>
       <c r="H60" s="1">
-        <v>89</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="7:8">
@@ -4782,7 +4800,7 @@
         <v>61</v>
       </c>
       <c r="H61" s="1">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="7:8">
@@ -4791,7 +4809,7 @@
         <v>62</v>
       </c>
       <c r="H62" s="1">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="7:8">
@@ -4800,7 +4818,7 @@
         <v>63</v>
       </c>
       <c r="H63" s="1">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="7:8">
@@ -4809,7 +4827,7 @@
         <v>64</v>
       </c>
       <c r="H64" s="1">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="7:8">
@@ -4818,7 +4836,7 @@
         <v>65</v>
       </c>
       <c r="H65" s="1">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="7:8">
@@ -4827,7 +4845,7 @@
         <v>66</v>
       </c>
       <c r="H66" s="1">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="7:8">
@@ -4836,7 +4854,7 @@
         <v>67</v>
       </c>
       <c r="H67" s="1">
-        <v>81</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="7:8">
@@ -4845,7 +4863,7 @@
         <v>68</v>
       </c>
       <c r="H68" s="1">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="7:8">
@@ -4863,7 +4881,7 @@
         <v>70</v>
       </c>
       <c r="H70" s="1">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="7:8">
@@ -4872,7 +4890,7 @@
         <v>71</v>
       </c>
       <c r="H71" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="7:8">
@@ -4881,7 +4899,7 @@
         <v>72</v>
       </c>
       <c r="H72" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="7:8">
@@ -4890,7 +4908,7 @@
         <v>73</v>
       </c>
       <c r="H73" s="1">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="7:8">
@@ -4899,7 +4917,7 @@
         <v>74</v>
       </c>
       <c r="H74" s="1">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="7:8">
@@ -4908,7 +4926,7 @@
         <v>75</v>
       </c>
       <c r="H75" s="1">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="7:8">
@@ -4917,7 +4935,7 @@
         <v>76</v>
       </c>
       <c r="H76" s="1">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="7:8">
@@ -4926,7 +4944,7 @@
         <v>77</v>
       </c>
       <c r="H77" s="1">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="7:8">
@@ -4935,7 +4953,7 @@
         <v>78</v>
       </c>
       <c r="H78" s="1">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="7:8">
@@ -4944,7 +4962,7 @@
         <v>79</v>
       </c>
       <c r="H79" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="7:8">
@@ -4953,7 +4971,7 @@
         <v>80</v>
       </c>
       <c r="H80" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="7:8">
@@ -4962,7 +4980,7 @@
         <v>81</v>
       </c>
       <c r="H81" s="1">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="7:8">
@@ -4971,7 +4989,7 @@
         <v>82</v>
       </c>
       <c r="H82" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="7:8">
@@ -4980,7 +4998,7 @@
         <v>83</v>
       </c>
       <c r="H83" s="1">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="7:8">
@@ -4998,7 +5016,7 @@
         <v>85</v>
       </c>
       <c r="H85" s="1">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="7:8">
@@ -5007,7 +5025,7 @@
         <v>86</v>
       </c>
       <c r="H86" s="1">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="7:8">
@@ -5016,7 +5034,7 @@
         <v>87</v>
       </c>
       <c r="H87" s="1">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="7:8">
@@ -5025,7 +5043,7 @@
         <v>88</v>
       </c>
       <c r="H88" s="1">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="7:8">
@@ -5034,7 +5052,7 @@
         <v>89</v>
       </c>
       <c r="H89" s="1">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="7:8">
@@ -5043,7 +5061,7 @@
         <v>90</v>
       </c>
       <c r="H90" s="1">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="7:8">
@@ -5052,7 +5070,7 @@
         <v>91</v>
       </c>
       <c r="H91" s="1">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="7:8">
@@ -5061,7 +5079,7 @@
         <v>92</v>
       </c>
       <c r="H92" s="1">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="7:8">
@@ -5070,7 +5088,7 @@
         <v>93</v>
       </c>
       <c r="H93" s="1">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="7:8">
@@ -5079,7 +5097,7 @@
         <v>94</v>
       </c>
       <c r="H94" s="1">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="7:8">
@@ -5088,7 +5106,7 @@
         <v>95</v>
       </c>
       <c r="H95" s="1">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="7:8">
@@ -5097,7 +5115,7 @@
         <v>96</v>
       </c>
       <c r="H96" s="1">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="7:8">
@@ -5106,7 +5124,7 @@
         <v>97</v>
       </c>
       <c r="H97" s="1">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="7:8">
@@ -5115,7 +5133,7 @@
         <v>98</v>
       </c>
       <c r="H98" s="1">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="7:8">
@@ -5124,7 +5142,7 @@
         <v>99</v>
       </c>
       <c r="H99" s="1">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="7:8">
@@ -5133,7 +5151,7 @@
         <v>100</v>
       </c>
       <c r="H100" s="1">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="7:8">
@@ -5142,7 +5160,7 @@
         <v>101</v>
       </c>
       <c r="H101" s="1">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="7:8">
@@ -5154,18 +5172,27 @@
     <row r="104" spans="7:8">
       <c r="G104" s="2">
         <f>MAX(H1:H101)-MIN(H1:H101)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H104" s="2"/>
+    </row>
+    <row r="106" spans="7:8">
+      <c r="G106" t="s">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <f>SUM(H1:H101)</f>
+        <v>10000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G104:H104"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Distribution.xlsx
+++ b/Distribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\things\CLion\Small Tasks\HashMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BC3016-BC9E-43CB-B302-D8B877C1FC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE287BCA-400D-4654-B669-02EBC8623D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{A311A790-3615-4F37-A9E0-A22E7D4ADAD0}"/>
   </bookViews>
@@ -263,55 +263,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>585</c:v>
+                  <c:v>604</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>569</c:v>
+                  <c:v>608</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>574</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>641</c:v>
+                  <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>582</c:v>
+                  <c:v>571</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>597</c:v>
+                  <c:v>642</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>609</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>615</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>585</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
                   <c:v>592</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>537</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>569</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>599</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>587</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>588</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>565</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>606</c:v>
+                  <c:v>593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -685,97 +685,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>328</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>332</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>309</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>331</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>337</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>316</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>341</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>318</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>343</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>279</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>339</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>337</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>324</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>318</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>321</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>324</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>320</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1359,307 +1359,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>112</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>93</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>104</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>96</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>91</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>102</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3474,8 +3474,8 @@
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>2208</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3877,16 +3877,17 @@
   <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H107" sqref="H107"/>
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3894,19 +3895,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="1">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="D1">
         <v>1</v>
       </c>
       <c r="E1" s="1">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="G1">
         <v>1</v>
       </c>
       <c r="H1" s="1">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3915,21 +3916,21 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>569</v>
+        <v>608</v>
       </c>
       <c r="D2">
         <f>D1+1</f>
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="G2">
         <f>G1+1</f>
         <v>2</v>
       </c>
       <c r="H2" s="1">
-        <v>129</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3938,21 +3939,21 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>574</v>
+        <v>513</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D31" si="1">D2+1</f>
         <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" si="2">G2+1</f>
         <v>3</v>
       </c>
       <c r="H3" s="1">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3961,21 +3962,21 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>641</v>
+        <v>579</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E4" s="1">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H4" s="1">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3984,21 +3985,21 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="E5" s="1">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H5" s="1">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4007,21 +4008,21 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>597</v>
+        <v>642</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E6" s="1">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H6" s="1">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4030,21 +4031,21 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>609</v>
+        <v>577</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="E7" s="1">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H7" s="1">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4053,21 +4054,21 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>615</v>
+        <v>526</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="E8" s="1">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H8" s="1">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4076,21 +4077,21 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E9" s="1">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="H9" s="1">
-        <v>89</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4099,21 +4100,21 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E10" s="1">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="H10" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4122,21 +4123,21 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>537</v>
+        <v>607</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="E11" s="1">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="H11" s="1">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4145,21 +4146,21 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E12" s="1">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H12" s="1">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4168,21 +4169,21 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="E13" s="1">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="H13" s="1">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4191,21 +4192,21 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>587</v>
+        <v>639</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="E14" s="1">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="H14" s="1">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4214,21 +4215,21 @@
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="E15" s="1">
-        <v>279</v>
+        <v>368</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="H15" s="1">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4237,21 +4238,21 @@
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="E16" s="1">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="H16" s="1">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4260,21 +4261,21 @@
         <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="E17" s="1">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="H17" s="1">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4283,14 +4284,14 @@
         <v>18</v>
       </c>
       <c r="E18" s="1">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="H18" s="1">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4303,20 +4304,20 @@
         <v>19</v>
       </c>
       <c r="E19" s="1">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H19" s="1">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <f>MAX(B1:B17)-MIN(B1:B17)</f>
-        <v>104</v>
+        <f>(MAX(B1:B17)-MIN(B1:B17))/MAX(B1:B17)</f>
+        <v>0.20093457943925233</v>
       </c>
       <c r="B20" s="2"/>
       <c r="D20">
@@ -4324,14 +4325,14 @@
         <v>20</v>
       </c>
       <c r="E20" s="1">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="H20" s="1">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4340,14 +4341,14 @@
         <v>21</v>
       </c>
       <c r="E21" s="1">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="H21" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4363,7 +4364,7 @@
         <v>22</v>
       </c>
       <c r="E22" s="1">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
@@ -4379,14 +4380,14 @@
         <v>23</v>
       </c>
       <c r="E23" s="1">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="H23" s="1">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4395,14 +4396,14 @@
         <v>24</v>
       </c>
       <c r="E24" s="1">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="H24" s="1">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4411,14 +4412,14 @@
         <v>25</v>
       </c>
       <c r="E25" s="1">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="H25" s="1">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4427,14 +4428,14 @@
         <v>26</v>
       </c>
       <c r="E26" s="1">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="H26" s="1">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -4443,14 +4444,14 @@
         <v>27</v>
       </c>
       <c r="E27" s="1">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="H27" s="1">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4459,14 +4460,14 @@
         <v>28</v>
       </c>
       <c r="E28" s="1">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="H28" s="1">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4475,14 +4476,14 @@
         <v>29</v>
       </c>
       <c r="E29" s="1">
-        <v>350</v>
+        <v>287</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="H29" s="1">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -4491,14 +4492,14 @@
         <v>30</v>
       </c>
       <c r="E30" s="1">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="H30" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4507,14 +4508,14 @@
         <v>31</v>
       </c>
       <c r="E31" s="1">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="H31" s="1">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4523,7 +4524,7 @@
         <v>32</v>
       </c>
       <c r="H32" s="1">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="4:8">
@@ -4536,13 +4537,13 @@
         <v>33</v>
       </c>
       <c r="H33" s="1">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="4:8">
       <c r="D34" s="2">
-        <f>MAX(E1:E31)-MIN(E1:E31)</f>
-        <v>71</v>
+        <f>(MAX(E1:E31)-MIN(E1:E31))/MAX(E1:E31)</f>
+        <v>0.28198433420365537</v>
       </c>
       <c r="E34" s="2"/>
       <c r="G34">
@@ -4550,7 +4551,7 @@
         <v>34</v>
       </c>
       <c r="H34" s="1">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="4:8">
@@ -4566,7 +4567,7 @@
         <v>35</v>
       </c>
       <c r="H35" s="1">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="4:8">
@@ -4575,7 +4576,7 @@
         <v>36</v>
       </c>
       <c r="H36" s="1">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="4:8">
@@ -4584,7 +4585,7 @@
         <v>37</v>
       </c>
       <c r="H37" s="1">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="4:8">
@@ -4593,7 +4594,7 @@
         <v>38</v>
       </c>
       <c r="H38" s="1">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="4:8">
@@ -4602,7 +4603,7 @@
         <v>39</v>
       </c>
       <c r="H39" s="1">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="4:8">
@@ -4611,7 +4612,7 @@
         <v>40</v>
       </c>
       <c r="H40" s="1">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="4:8">
@@ -4620,7 +4621,7 @@
         <v>41</v>
       </c>
       <c r="H41" s="1">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="4:8">
@@ -4629,7 +4630,7 @@
         <v>42</v>
       </c>
       <c r="H42" s="1">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="4:8">
@@ -4638,7 +4639,7 @@
         <v>43</v>
       </c>
       <c r="H43" s="1">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="4:8">
@@ -4647,7 +4648,7 @@
         <v>44</v>
       </c>
       <c r="H44" s="1">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="4:8">
@@ -4656,7 +4657,7 @@
         <v>45</v>
       </c>
       <c r="H45" s="1">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="4:8">
@@ -4665,7 +4666,7 @@
         <v>46</v>
       </c>
       <c r="H46" s="1">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="4:8">
@@ -4674,7 +4675,7 @@
         <v>47</v>
       </c>
       <c r="H47" s="1">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="4:8">
@@ -4683,7 +4684,7 @@
         <v>48</v>
       </c>
       <c r="H48" s="1">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="7:8">
@@ -4692,7 +4693,7 @@
         <v>49</v>
       </c>
       <c r="H49" s="1">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="7:8">
@@ -4701,7 +4702,7 @@
         <v>50</v>
       </c>
       <c r="H50" s="1">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="7:8">
@@ -4710,7 +4711,7 @@
         <v>51</v>
       </c>
       <c r="H51" s="1">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="7:8">
@@ -4719,7 +4720,7 @@
         <v>52</v>
       </c>
       <c r="H52" s="1">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="7:8">
@@ -4728,7 +4729,7 @@
         <v>53</v>
       </c>
       <c r="H53" s="1">
-        <v>106</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="7:8">
@@ -4737,7 +4738,7 @@
         <v>54</v>
       </c>
       <c r="H54" s="1">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="7:8">
@@ -4746,7 +4747,7 @@
         <v>55</v>
       </c>
       <c r="H55" s="1">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="7:8">
@@ -4755,7 +4756,7 @@
         <v>56</v>
       </c>
       <c r="H56" s="1">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="7:8">
@@ -4764,7 +4765,7 @@
         <v>57</v>
       </c>
       <c r="H57" s="1">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="7:8">
@@ -4773,7 +4774,7 @@
         <v>58</v>
       </c>
       <c r="H58" s="1">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="7:8">
@@ -4782,7 +4783,7 @@
         <v>59</v>
       </c>
       <c r="H59" s="1">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="7:8">
@@ -4791,7 +4792,7 @@
         <v>60</v>
       </c>
       <c r="H60" s="1">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="7:8">
@@ -4800,7 +4801,7 @@
         <v>61</v>
       </c>
       <c r="H61" s="1">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="7:8">
@@ -4809,7 +4810,7 @@
         <v>62</v>
       </c>
       <c r="H62" s="1">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="7:8">
@@ -4818,7 +4819,7 @@
         <v>63</v>
       </c>
       <c r="H63" s="1">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="7:8">
@@ -4827,7 +4828,7 @@
         <v>64</v>
       </c>
       <c r="H64" s="1">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="7:8">
@@ -4836,7 +4837,7 @@
         <v>65</v>
       </c>
       <c r="H65" s="1">
-        <v>120</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="7:8">
@@ -4845,7 +4846,7 @@
         <v>66</v>
       </c>
       <c r="H66" s="1">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="7:8">
@@ -4854,7 +4855,7 @@
         <v>67</v>
       </c>
       <c r="H67" s="1">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="7:8">
@@ -4863,7 +4864,7 @@
         <v>68</v>
       </c>
       <c r="H68" s="1">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="7:8">
@@ -4872,7 +4873,7 @@
         <v>69</v>
       </c>
       <c r="H69" s="1">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="7:8">
@@ -4881,7 +4882,7 @@
         <v>70</v>
       </c>
       <c r="H70" s="1">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="7:8">
@@ -4890,7 +4891,7 @@
         <v>71</v>
       </c>
       <c r="H71" s="1">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="7:8">
@@ -4899,7 +4900,7 @@
         <v>72</v>
       </c>
       <c r="H72" s="1">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="7:8">
@@ -4908,7 +4909,7 @@
         <v>73</v>
       </c>
       <c r="H73" s="1">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="7:8">
@@ -4917,7 +4918,7 @@
         <v>74</v>
       </c>
       <c r="H74" s="1">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="7:8">
@@ -4926,7 +4927,7 @@
         <v>75</v>
       </c>
       <c r="H75" s="1">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="7:8">
@@ -4935,7 +4936,7 @@
         <v>76</v>
       </c>
       <c r="H76" s="1">
-        <v>107</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="7:8">
@@ -4944,7 +4945,7 @@
         <v>77</v>
       </c>
       <c r="H77" s="1">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="7:8">
@@ -4953,7 +4954,7 @@
         <v>78</v>
       </c>
       <c r="H78" s="1">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="7:8">
@@ -4962,7 +4963,7 @@
         <v>79</v>
       </c>
       <c r="H79" s="1">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="7:8">
@@ -4971,7 +4972,7 @@
         <v>80</v>
       </c>
       <c r="H80" s="1">
-        <v>91</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="7:8">
@@ -4980,7 +4981,7 @@
         <v>81</v>
       </c>
       <c r="H81" s="1">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="7:8">
@@ -4989,7 +4990,7 @@
         <v>82</v>
       </c>
       <c r="H82" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="7:8">
@@ -4998,7 +4999,7 @@
         <v>83</v>
       </c>
       <c r="H83" s="1">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="7:8">
@@ -5007,7 +5008,7 @@
         <v>84</v>
       </c>
       <c r="H84" s="1">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="7:8">
@@ -5016,7 +5017,7 @@
         <v>85</v>
       </c>
       <c r="H85" s="1">
-        <v>102</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="7:8">
@@ -5025,7 +5026,7 @@
         <v>86</v>
       </c>
       <c r="H86" s="1">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="7:8">
@@ -5034,7 +5035,7 @@
         <v>87</v>
       </c>
       <c r="H87" s="1">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="7:8">
@@ -5043,7 +5044,7 @@
         <v>88</v>
       </c>
       <c r="H88" s="1">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="7:8">
@@ -5052,7 +5053,7 @@
         <v>89</v>
       </c>
       <c r="H89" s="1">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="7:8">
@@ -5061,7 +5062,7 @@
         <v>90</v>
       </c>
       <c r="H90" s="1">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="7:8">
@@ -5070,7 +5071,7 @@
         <v>91</v>
       </c>
       <c r="H91" s="1">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="7:8">
@@ -5079,7 +5080,7 @@
         <v>92</v>
       </c>
       <c r="H92" s="1">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="7:8">
@@ -5088,7 +5089,7 @@
         <v>93</v>
       </c>
       <c r="H93" s="1">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="7:8">
@@ -5097,7 +5098,7 @@
         <v>94</v>
       </c>
       <c r="H94" s="1">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="7:8">
@@ -5106,7 +5107,7 @@
         <v>95</v>
       </c>
       <c r="H95" s="1">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="7:8">
@@ -5115,7 +5116,7 @@
         <v>96</v>
       </c>
       <c r="H96" s="1">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="7:8">
@@ -5124,7 +5125,7 @@
         <v>97</v>
       </c>
       <c r="H97" s="1">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="7:8">
@@ -5133,7 +5134,7 @@
         <v>98</v>
       </c>
       <c r="H98" s="1">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="7:8">
@@ -5142,7 +5143,7 @@
         <v>99</v>
       </c>
       <c r="H99" s="1">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="7:8">
@@ -5151,7 +5152,7 @@
         <v>100</v>
       </c>
       <c r="H100" s="1">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="7:8">
@@ -5160,7 +5161,7 @@
         <v>101</v>
       </c>
       <c r="H101" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="7:8">
@@ -5171,8 +5172,8 @@
     </row>
     <row r="104" spans="7:8">
       <c r="G104" s="2">
-        <f>MAX(H1:H101)-MIN(H1:H101)</f>
-        <v>56</v>
+        <f>(MAX(H1:H101)-MIN(H1:H101))/MAX(H1:H101)</f>
+        <v>0.40799999999999997</v>
       </c>
       <c r="H104" s="2"/>
     </row>
